--- a/ERDesign.xlsx
+++ b/ERDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>학생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>학년</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>나이</t>
+  </si>
+  <si>
+    <t>2학년</t>
+  </si>
+  <si>
+    <t>홍길동</t>
   </si>
 </sst>
 </file>
@@ -366,17 +377,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
